--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5924,12 +5924,12 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J141"/>
+  <dimension ref="A1:J142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concesión Américo Vespucio Oriente II, Tramo Príncipe de Gales -Los Presidentes</t>
+          <t>Aldea del Encuentro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SOCIEDAD CONCESIONARIA AMERICO VESPUCIO ORIENTE II S.A.</t>
+          <t>Constructora Inmobiliaria e Inversiones Oval Ltda</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>714200</v>
+        <v>11671</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/07/2020</t>
+          <t>12/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147124332&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156937860&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>Concesión Américo Vespucio Oriente II, Tramo Príncipe de Gales -Los Presidentes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD CONCESIONARIA AMERICO VESPUCIO ORIENTE II S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25000</v>
+        <v>714200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>15/07/2020</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147124332&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potenciación de Línea de Transmisión Eléctrica 110 kV Los Almendros - El Salto, Tramo Los Almendros - Tap Los Domínicos</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,20 +530,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1670</v>
+        <v>25000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/02/2017</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Proyecto Inmobiliario Príncipe de Gales</t>
+          <t>Potenciación de Línea de Transmisión Eléctrica 110 kV Los Almendros - El Salto, Tramo Los Almendros - Tap Los Domínicos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Inmobiliaria Príncipe de Gales S.A.</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>56420</v>
+        <v>1670</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26/12/2016</t>
+          <t>17/02/2017</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132015532&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/11/2016</t>
+          <t>26/12/2016</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131947740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132015532&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
+          <t>Proyecto Inmobiliario Príncipe de Gales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
+          <t>Inmobiliaria Príncipe de Gales S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>900000</v>
+        <v>56420</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13/11/2015</t>
+          <t>29/11/2016</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131947740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales. Sector 2: Puente Centenario - Príncipe de Gales</t>
+          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -731,21 +731,21 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>650000</v>
+        <v>900000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13/08/2015</t>
+          <t>13/11/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130674482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130887485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación Ubicación Ventilaciones Forzadas Línea 3</t>
+          <t>Concesión Américo Vespucio Oriente. Tramo Avenida El Salto - Príncipe de Gales. Sector 2: Puente Centenario - Príncipe de Gales</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Sociedad Concesionaria Vespucio Oriente S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5000</v>
+        <v>650000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/07/2014</t>
+          <t>13/08/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130674482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
+          <t>Modificación Ubicación Ventilaciones Forzadas Línea 3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>21/07/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129654944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,30 +856,30 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Linea 3 - Etapa 2: Tuneles, Estaciones, Talleres y Cocheras</t>
+          <t>Transporte de Residuos Peligrosos por las Rutas Indicadas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.5715</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01/07/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8290836&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128972489&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,40 +904,40 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Linea 3 - Etapa 2: Tuneles, Estaciones, Talleres y Cocheras</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>1.5715</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>01/07/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8290836&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN PLANTA DIFEM LABORATORIOS</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Difem Laboratorios SA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3400</v>
+        <v>250</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>08/08/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7186240&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Línea 3 - Etapa 1: Piques y Galerías</t>
+          <t>AMPLIACIÓN PLANTA DIFEM LABORATORIOS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,15 +1111,15 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Difem Laboratorios SA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>180000</v>
+        <v>3400</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15/06/2012</t>
+          <t>08/08/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7016578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7186240&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Línea 3 - Etapa 1: Piques y Galerías</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>15/06/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7016578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>12/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>12/04/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6792983&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>13/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>PLANTA DE RECICLAJE DE RECIDUOS ELECTRONICOS, METALICOS Y PLASTICOS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>18/01/2012</t>
+          <t>13/02/2012</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6601327&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>18/01/2012</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6508245&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>22/11/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/11/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6293869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Neociclo Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Planta de Reciclaje de Residuos Electrónicos, Metálicos y Plásticos</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Neociclo Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>09/11/2011</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6246614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/09/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV FLORIDA - LOS ALMENDROS TRAMO TAP LA REINA - TAP ANDES</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2200</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>29/07/2011</t>
+          <t>08/09/2011</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003582&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
+          <t>POTENCIACIÓN LÍNEA DE TRANSMISIÓN ELÉCTRICA 110 kV FLORIDA - LOS ALMENDROS TRAMO TAP LA REINA - TAP ANDES</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Enel Distribución Chile S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12/05/2011</t>
+          <t>29/07/2011</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5866557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Mall Plaza Egaña</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Desarrollos Urbanos S.A.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>175000</v>
+        <v>200</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>29/12/2010</t>
+          <t>12/05/2011</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5184262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5613605&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Modificación Mall Plaza Egaña</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Desarrollos Urbanos S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1750</v>
+        <v>175000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>29/12/2010</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5184262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>900</v>
+        <v>1750</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06/07/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS POR LAS RUTAS INDICADAS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios de Movimientos de Tierra, Ingeniería y Construcción Ltda. SEMINCO</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1750</v>
+        <v>900</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>06/07/2010</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4726790&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,17 +2127,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MODIFICACION PRC LA REINA (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,20 +2306,20 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Reina</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>29/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Las Brujas (e-seia)</t>
+          <t>MODIFICACION PRC LA REINA (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Petrobras Chile Distribución Ltda.</t>
+          <t>Ilustre Municipalidad de La Reina</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>26/11/2009</t>
+          <t>29/12/2009</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4283594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>Nuevo Estanque de Combustible Estación de Servicio PETROBRAS Las Brujas (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Petrobras Chile Distribución Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>26/11/2009</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4217680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>27/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PRMS MPRMS- 94, SISTEMA METROPOLITANO DE AREAS VERDES DECLARATORIA DE UTILIDAD PUBLICA DE PARQUES INTERCOMUNALES Exp 88/09 (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rafael Gonzalez Araya</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10/07/2009</t>
+          <t>27/08/2009</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3998205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
+          <t>Transporte de Residuos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>16/06/2009</t>
+          <t>10/07/2009</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3873705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>transporte de residuos por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Rafael Gonzalez Araya</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>22</v>
+        <v>800</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>16/06/2009</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3844974&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/01/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/12/2008</t>
+          <t>23/01/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3503806&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>27/11/2008</t>
+          <t>04/12/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>26/11/2008</t>
+          <t>27/11/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337768&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
+          <t>actualización dela Vialidad Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03/11/2008</t>
+          <t>26/11/2008</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3374854&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE Y ALMACENAMIENTO TEMPORAL DE RESIDUOS PELIGROSOS, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>25</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>03/11/2008</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3318646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,11 +3079,11 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3092,12 +3092,12 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3135,7 +3135,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>09/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mall Plaza Egaña (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,30 +3362,30 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Desarrollos Inmobiliarios S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>120000</v>
+        <v>1750</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21/08/2008</t>
+          <t>09/09/2008</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3098237&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Mall Plaza Egaña (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Desarrollos Inmobiliarios S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>120000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>21/08/2008</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3098237&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>160</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>01/08/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/07/2008</t>
+          <t>01/08/2008</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3060358&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>14/07/2008</t>
+          <t>28/07/2008</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3066713&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>11/07/2008</t>
+          <t>14/07/2008</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3035988&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Víctor Martínez Salcedo</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/07/2008</t>
+          <t>11/07/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2964987&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes Moscoso y Moscoso Ltda.</t>
+          <t>Víctor Martínez Salcedo</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18/06/2008</t>
+          <t>03/07/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3014508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>Transporte y Almacenamiento Temporal de Residuos Peligrosos, M y M Ltda. (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Moscoso y Moscoso Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>18/06/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2981711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Centro Comercial Espacio Urbano la Reina (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Walmart Chile Inmobiliaria S.A</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>29000</v>
+        <v>500</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>18/03/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2786976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SAITEC S.A.</t>
+          <t>Walmart Chile Inmobiliaria S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>12/03/2008</t>
+          <t>18/03/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2749808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2786976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
+          <t>Centro Comercial Espacio Urbano la Reina (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,25 +3943,25 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>SAITEC S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>29000</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>03/03/2008</t>
+          <t>12/03/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2749808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Tratamiento insitu de Residuos Lumínicos (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>31/01/2008</t>
+          <t>03/03/2008</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2739624&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>31/01/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2679535&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>28/01/2008</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Propano en Situaciones de Emergencia desde Maipú a Peñalolén (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>gasmar s.a.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>26/12/2007</t>
+          <t>28/01/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2672558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>13/11/2007</t>
+          <t>26/12/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2596345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>30</v>
+        <v>234</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>25/10/2007</t>
+          <t>13/11/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2470684&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>234</v>
+        <v>30</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>25/10/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2454259&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>23/08/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
+          <t>Transporte de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>13/08/2007</t>
+          <t>23/08/2007</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2329508&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>20/07/2007</t>
+          <t>13/08/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2316323&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte, reciclaje y gestión de residuos industriales (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>20/07/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2268868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>12/04/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y Procesamiento de Áridos" Exp. N°066/07 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4706,12 +4706,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>12/04/2007</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2098229&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>210</v>
+        <v>1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>20/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte, Reciclaje y Gestión de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>500</v>
+        <v>210</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>20/02/2007</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2002494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4850,16 +4850,16 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Proyecto MPRMS 41 - AB "Modificación de Proyecto MPRMS 41 - A Extracción y procesamiento de Áridos" (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4898,30 +4898,30 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1986281&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Prodelin Ltda.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/11/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Prodelin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>06/11/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1785275&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,17 +5247,17 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Modificación del Plan Regulador Comunal de La Reina (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,30 +5282,30 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de La Reina</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>20/01/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1223594&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Depósito y Terminal de Vehículos La Reina, Troncal 4 Exp. Nº007/2006 (e-seia)</t>
+          <t>Modificación del Plan Regulador Comunal de La Reina (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Express de Santiago Uno S.A.</t>
+          <t>Ilustre Municipalidad de La Reina</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>2112</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/01/2006</t>
+          <t>20/01/2006</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1209298&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1223594&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Depósito y Terminal de Vehículos La Reina, Troncal 4 Exp. Nº007/2006 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Express de Santiago Uno S.A.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>72</v>
+        <v>2112</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>09/01/2006</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1209298&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,20 +5474,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>MPRMS 52 TEXTO REFUNDIDO, AJUSTADO Y SISTEMATIZADO DE LA ORDENANAZA DEL PRMS Modificación MPRMS 52 Texto Refundido (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5522,30 +5522,30 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>07/12/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1142401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad de Representaciones Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>20/10/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE BORRAS PLOMADAS Y OTROS RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>Sociedad de Representaciones Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>20/10/2005</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1069115&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5671,11 +5671,11 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Jorge Díaz Contreras</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,11 +5719,11 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Jorge Díaz Contreras</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=999248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,30 +5858,30 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>24/02/2005</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MODIFICACIÓN MPRMS-87 "Plantas de Compostaje de Residuos Orgánicos" (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>24/12/2004</t>
+          <t>24/02/2005</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=610415&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Occidental Chemical Chile Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -6015,17 +6015,17 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09/08/2004</t>
+          <t>24/12/2004</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
+          <t>Transporte Rodoviario de Cloro en y entre las Regiones II y X (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6050,12 +6050,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Occidental Chemical Chile Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>09/08/2004</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=415850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Centro de Estudios Nucleares La Reina (e-seia)</t>
+          <t>Proyecto de Modificación del PRMS, MPRMS 41-A Extracción y Procesamiento de Aridos (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>17/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153167&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=258474&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Estaciones y Túneles Interestaciones Tramo Tobalaba-Rotonda Grecia</t>
+          <t>Centro de Estudios Nucleares La Reina (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>152000</v>
+        <v>0</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>09/12/2002</t>
+          <t>17/09/2003</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153167&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
+          <t>Estaciones y Túneles Interestaciones Tramo Tobalaba-Rotonda Grecia</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>EMPRESA DE TRANSPORTE DE PASAJEROS METRO S.A.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>152000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/09/2002</t>
+          <t>09/12/2002</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
+          <t>Modificación PRMS - 68 Areas de peligro aviario</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sello Verde Ingeniería Ambiental S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/06/2002</t>
+          <t>30/09/2002</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
+          <t>Tratamiento de Residuos Industriales Mediante Encapsulación con PEBD</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Sello Verde Ingeniería Ambiental S.A.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>20/06/2002</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago PRMS-38 Modifica artículo 4.4 Densidades Planes Reguladores Comunales.</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6338,30 +6338,30 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4493&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,40 +6376,40 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Modificación al Plan Regulador Metropolitano de Santiago como Zona Industrial Molesta para el Parque Industrial La Reina.</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4210&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,12 +6424,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
+          <t>Modificación al Plan Regulador Metropolitano de Santiago como Zona Industrial Molesta para el Parque Industrial La Reina.</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -6447,7 +6447,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>12/07/2001</t>
+          <t>07/08/2001</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4210&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,30 +6472,30 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago MPRMS-9B</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1230</v>
+        <v>0</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>28/05/2001</t>
+          <t>12/07/2001</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,30 +6520,30 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Hospital Militar La Reina</t>
+          <t>Ampliación Planta Procesan: Transporte Tratamiento y Eliminación de Residuos Biopeligrosos y Farmacológicos</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ejercito de Chile</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>65000</v>
+        <v>1230</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>28/05/2001</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3922&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Sendero de Chile Tramo Quebrada Ramón - Quebrada Macul Contrafuerte Cordillerano Región Metropolitana</t>
+          <t>Hospital Militar La Reina</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,15 +6583,15 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Asociación de Municipalidades Proyecto Protege</t>
+          <t>Ejercito de Chile</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1000</v>
+        <v>65000</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3772&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3922&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
+          <t>Sendero de Chile Tramo Quebrada Ramón - Quebrada Macul Contrafuerte Cordillerano Región Metropolitana</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6631,15 +6631,15 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Asociación de Municipalidades Proyecto Protege</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>13/03/2001</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3772&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
+          <t>Sistema Metropolitano de Areas Verdes y Recreación</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6687,17 +6687,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/03/2001</t>
+          <t>13/03/2001</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3736&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Centro Comercial Home Depot La Reina</t>
+          <t>Viviendas con Subsidios Habitacionales del Estado - MPRMS 44</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,25 +6727,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>The Home Depot Chile S.A.</t>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>29/08/2000</t>
+          <t>02/03/2001</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Rodelbahn Pista de Trineo</t>
+          <t>Centro Comercial Home Depot La Reina</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Rodelbahn Ltda.</t>
+          <t>The Home Depot Chile S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>09/05/2000</t>
+          <t>29/08/2000</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Modificación Plan Regulador Metropolitano de Santiago Remoción Masa Quebrada de Ramón La Reina - Las Condes</t>
+          <t>Rodelbahn Pista de Trineo</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Rodelbahn Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -6831,7 +6831,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>15/09/1999</t>
+          <t>09/05/2000</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Maestranza y Montajes Ernst Georg Welzel Tautz</t>
+          <t>Modificación Plan Regulador Metropolitano de Santiago Remoción Masa Quebrada de Ramón La Reina - Las Condes</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,15 +6871,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Ernts Georg Welzel Tautz</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>26/08/1999</t>
+          <t>15/09/1999</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2223&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Centro Comercial La Reina Megamercado Lider</t>
+          <t>Maestranza y Montajes Ernst Georg Welzel Tautz</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Wallmart Chile S.A.</t>
+          <t>Ernts Georg Welzel Tautz</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>29130</v>
+        <v>700</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/06/1999</t>
+          <t>26/08/1999</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1989&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2223&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Conjunto Habitacional Peñarey</t>
+          <t>Centro Comercial La Reina Megamercado Lider</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,25 +6967,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Carabineros de Chile</t>
+          <t>Wallmart Chile S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>13200</v>
+        <v>29130</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>13/11/1998</t>
+          <t>04/06/1999</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1989&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Remodelación y Ampliación Fosforera Sudamericana</t>
+          <t>Conjunto Habitacional Peñarey</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Fosforera Sudamericana S.I.C. Ltda.</t>
+          <t>Carabineros de Chile</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>590</v>
+        <v>13200</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>17/08/1998</t>
+          <t>13/11/1998</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Modificación de Plan Regulador Metropolitano de Santiago en Masa Quebrada de Ramón</t>
+          <t>Remodelación y Ampliación Fosforera Sudamericana</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,25 +7063,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+          <t>Fosforera Sudamericana S.I.C. Ltda.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>24/02/1998</t>
+          <t>17/08/1998</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1315&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,43 +7096,91 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>Modificación de Plan Regulador Metropolitano de Santiago en Masa Quebrada de Ramón</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>RM</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Secretaría Regional Ministerial, SEREMI (R.M.), Vivienda y Urbanismo</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>24/02/1998</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1072&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>La Reina</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>Red de Distribución de Gas Natural Metrogas</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>RM</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>Metrogas S.A.</t>
         </is>
       </c>
-      <c r="F141" t="n">
+      <c r="F142" t="n">
         <v>300000</v>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>21/11/1995</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I141" t="inlineStr">
+      <c r="I142" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=154&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
+      <c r="J142" t="inlineStr">
         <is>
           <t>La Reina</t>
         </is>

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12/09/2022</t>
+          <t>20/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -583,7 +583,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>gasmar s.a.</t>
+          <t>Gasmar SpA.</t>
         </is>
       </c>
       <c r="F79" t="n">

--- a/data/La Reina.xlsx
+++ b/data/La Reina.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
+          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5972,12 +5972,12 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MPRMS.83-C, INCORPORACION DE LA VIA NUEVO ACCESO SUR A SANTIAGO, AL CAP. 7.1. INFRAESTRUCTURA DE TRANSPORTE (e-seia)</t>
+          <t>MPRMS.83-AB, INCORPORA RED DEL METRO Y NORMATIVA A SECTORES DE ESTACIONES DEL METRO (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6020,12 +6020,12 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551408&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=551990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
